--- a/bank statement generator/bank_statements/statement_70.xlsx
+++ b/bank statement generator/bank_statements/statement_70.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 25.05.2024</t>
+          <t>KONTOSTAND AM 13.08.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,74 +759,90 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>28.05.</t>
+          <t>17.08.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>29.05.</t>
+          <t>18.08.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+          <t>EBAY MKTPLC EU ILRCXR</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>72,34-</t>
+          <t>173,72-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>29.05.</t>
+          <t>18.08.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>30.05.</t>
+          <t>19.08.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 76134376</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 74921070</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>38,09-</t>
+          <t>83,07-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>02.06.</t>
+          <t>22.08.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>03.06.</t>
+          <t>23.08.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU RQNVUD</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>37,24-</t>
+          <t>25,47-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>23.08.</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>24.08.</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>RECHNUNG VODAFONE GMBH 47092717</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>38,29-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -845,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 05.06.2024</t>
+          <t>KONTOSTAND AM 27.08.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>147,67-</t>
+          <t>320,55-</t>
         </is>
       </c>
     </row>
@@ -858,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 10.06.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 03.09.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
